--- a/artifacts/project/HDInsight Dev Guide Status.xlsx
+++ b/artifacts/project/HDInsight Dev Guide Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="580" windowWidth="29660" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="18820" yWindow="460" windowWidth="27600" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="381">
   <si>
     <t>Topic</t>
   </si>
@@ -1159,6 +1159,24 @@
   </si>
   <si>
     <t>hdinsight-hbase-backup-replication.md</t>
+  </si>
+  <si>
+    <t>Is there a specific approach desired and particular libraries intended for use here?</t>
+  </si>
+  <si>
+    <t>hdinsight-spark-rdd-vs-dataframe-vs-dataset.md</t>
+  </si>
+  <si>
+    <t>hdinsight-etl-at-scale.md</t>
+  </si>
+  <si>
+    <t>hdinsight-phoenix-in-hdinsight.md</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>hdinsight-hbase-phoenix-squirrel-linux.md</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1726,8 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1936,7 +1954,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>208</v>
@@ -1944,14 +1962,18 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -2036,12 +2058,16 @@
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2053,12 +2079,16 @@
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="12" t="s">
+        <v>380</v>
+      </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2299,12 +2329,16 @@
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="4"/>
       <c r="J35" s="5"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="12"/>
+      <c r="L35" s="12" t="s">
+        <v>376</v>
+      </c>
       <c r="M35" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -3966,8 +4000,8 @@
   <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4093,12 +4127,16 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>377</v>
+      </c>
       <c r="M6" s="3" t="s">
         <v>297</v>
       </c>

--- a/artifacts/project/HDInsight Dev Guide Status.xlsx
+++ b/artifacts/project/HDInsight Dev Guide Status.xlsx
@@ -1161,9 +1161,6 @@
     <t>hdinsight-hbase-backup-replication.md</t>
   </si>
   <si>
-    <t>Is there a specific approach desired and particular libraries intended for use here?</t>
-  </si>
-  <si>
     <t>hdinsight-spark-rdd-vs-dataframe-vs-dataset.md</t>
   </si>
   <si>
@@ -1177,6 +1174,9 @@
   </si>
   <si>
     <t>hdinsight-hbase-phoenix-squirrel-linux.md</t>
+  </si>
+  <si>
+    <t>hdinsight-using-spark-to-query-hbase.md</t>
   </si>
 </sst>
 </file>
@@ -1726,8 +1726,8 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1954,7 +1954,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>208</v>
@@ -1962,18 +1962,18 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="L11" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -2066,7 +2066,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
       <c r="L18" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M18" s="3"/>
     </row>
@@ -2080,14 +2080,14 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
       <c r="L19" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M19" s="3"/>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="4"/>
       <c r="L35" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M35" s="3"/>
     </row>
@@ -4000,8 +4000,8 @@
   <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4135,7 +4135,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>297</v>

--- a/artifacts/project/HDInsight Dev Guide Status.xlsx
+++ b/artifacts/project/HDInsight Dev Guide Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18820" yWindow="460" windowWidth="27600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="51100" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="384">
   <si>
     <t>Topic</t>
   </si>
@@ -1177,6 +1177,15 @@
   </si>
   <si>
     <t>hdinsight-using-spark-to-query-hbase.md</t>
+  </si>
+  <si>
+    <t>Suggest pulling in content from https://blogs.msdn.microsoft.com/azuredatalake/2016/09/02/hdinsight-hbase-9-things-you-must-do-to-get-great-hbase-performance/</t>
+  </si>
+  <si>
+    <t>Propose we rename this file since SQLLine is coverred and squirrel is not</t>
+  </si>
+  <si>
+    <t>Backup/replication of Phoenix is covered in this article as well.</t>
   </si>
 </sst>
 </file>
@@ -1726,8 +1735,8 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2015,7 +2024,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>211</v>
@@ -2028,9 +2037,13 @@
       <c r="H14" s="5"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L14" s="12"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -2070,7 +2083,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>214</v>
@@ -2078,7 +2091,9 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G19" s="4" t="s">
         <v>378</v>
       </c>
@@ -2089,7 +2104,9 @@
       <c r="L19" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -2138,13 +2155,19 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -2176,9 +2199,13 @@
       <c r="H24" s="5"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L24" s="12"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>

--- a/artifacts/project/HDInsight Dev Guide Status.xlsx
+++ b/artifacts/project/HDInsight Dev Guide Status.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="51100" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="640" windowWidth="30220" windowHeight="18040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 2" sheetId="2" r:id="rId1"/>
     <sheet name="Milestone 1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Milestone 1'!$A$1:$M$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="404">
   <si>
     <t>Topic</t>
   </si>
@@ -1107,24 +1110,15 @@
     <t>add adls, ad distcp, cloudxplorer, flume, change title (upload data to HDInsight), azcopy on linux, pull in content from Sqoop. Update to include ADLS as a target.</t>
   </si>
   <si>
-    <t>Duplicate of the topics in Troubleshooting chapter above?</t>
-  </si>
-  <si>
     <t>Should this guidance be a part of the hdinsight-architecture article, in the section on storage? What's the reasoning here?</t>
   </si>
   <si>
-    <t>Any particular "common errors" you already have in mind?</t>
-  </si>
-  <si>
     <t>Is there a specific custom program we should focus on?</t>
   </si>
   <si>
     <t>Synchronize On-prem Data/Metadata with Cloud</t>
   </si>
   <si>
-    <t>Do you have specific topics to cover?</t>
-  </si>
-  <si>
     <t>Advanced Settings</t>
   </si>
   <si>
@@ -1146,9 +1140,6 @@
     <t>Replication is covered in hdinsight-hbase-replication</t>
   </si>
   <si>
-    <t>See https://channel9.msdn.com/Events/Machine-Learning-and-Data-Sciences-Conference/Data-Science-Summit-2016/MSDSS25</t>
-  </si>
-  <si>
     <t>Skip as this is not yet supported.</t>
   </si>
   <si>
@@ -1186,6 +1177,81 @@
   </si>
   <si>
     <t>Backup/replication of Phoenix is covered in this article as well.</t>
+  </si>
+  <si>
+    <t>hdinsight-hbase-phoenix-performance.md</t>
+  </si>
+  <si>
+    <t>hdinsight-debug-ambari-tez-view</t>
+  </si>
+  <si>
+    <t>Already covered in hdinsight-debug-ambari-tez-view</t>
+  </si>
+  <si>
+    <t>hdinsight-phoenix-psql.md</t>
+  </si>
+  <si>
+    <t>hdinsight-using-phoenix-query-server-rest-sdk.md</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>Datameer</t>
+  </si>
+  <si>
+    <t>Streamsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdinsight-apps-install-applications.md </t>
+  </si>
+  <si>
+    <t>hdinsight-install-published-app-h2o.md</t>
+  </si>
+  <si>
+    <t>AND hdinsight-install-published-app-datameer.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hdinsight-install-published-app-streamsets.md</t>
+  </si>
+  <si>
+    <t>hdinsight-extend-hadoop-virtual-network.md</t>
+  </si>
+  <si>
+    <t>AtScale</t>
+  </si>
+  <si>
+    <t>Dataiku</t>
+  </si>
+  <si>
+    <t>Talena</t>
+  </si>
+  <si>
+    <t>Cask</t>
+  </si>
+  <si>
+    <t>blocked getting access</t>
+  </si>
+  <si>
+    <t>Already covered by https://azure.microsoft.com/en-us/blog/introducing-dataiku-s-dss-on-microsoft-azure-hdinsight-to-make-data-science-easier/</t>
+  </si>
+  <si>
+    <t>Already covered by https://blogs.msdn.microsoft.com/azuredatalake/2016/10/17/using-cask-data-application-platform-on-azure-hdinsight/</t>
+  </si>
+  <si>
+    <t>blocked waiting for Talena to post instructions in about a month</t>
+  </si>
+  <si>
+    <t>Duplicate of the topics in Troubleshooting chapter above per Bhanu.</t>
+  </si>
+  <si>
+    <t>The idea is to cover all necessary debugging and troubleshooting steps. There are some captured here https://docs.microsoft.com/en-us/azure/hdinsight/hdinsight-hadoop-linux-information but it doesn’t cover all the scenario.
+You can also refer EMR developer guide  and management guide on different aspects that are covered to ensure what else we can add.
+http://docs.aws.amazon.com/emr/latest/ManagementGuide/emr-mgmt.pdf
+http://docs.aws.amazon.com/emr/latest/DeveloperGuide/emr-dg.pdf</t>
+  </si>
+  <si>
+    <t>same as above</t>
   </si>
 </sst>
 </file>
@@ -1732,11 +1798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,10 +1888,10 @@
         <v>46</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -1845,10 +1911,10 @@
         <v>46</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -1867,7 +1933,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1911,7 +1977,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
       <c r="L8" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1957,10 +2023,10 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -1980,7 +2046,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
       <c r="L11" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -2002,7 +2068,7 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2016,7 +2082,9 @@
         <v>46</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
@@ -2042,7 +2110,7 @@
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2079,7 +2147,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
       <c r="L18" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M18" s="3"/>
     </row>
@@ -2095,17 +2163,17 @@
         <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
       <c r="L19" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2119,12 +2187,16 @@
         <v>46</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2138,12 +2210,16 @@
         <v>46</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="12" t="s">
+        <v>384</v>
+      </c>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2163,10 +2239,10 @@
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
       <c r="L22" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2204,7 +2280,7 @@
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2216,12 +2292,16 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>380</v>
+      </c>
       <c r="M25" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2241,7 +2321,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>221</v>
@@ -2249,18 +2329,18 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="3" t="s">
-        <v>370</v>
-      </c>
+      <c r="L28" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -2288,7 +2368,9 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
@@ -2305,7 +2387,9 @@
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
@@ -2322,7 +2406,9 @@
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="4"/>
       <c r="J33" s="5"/>
@@ -2339,7 +2425,9 @@
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="4"/>
       <c r="J34" s="5"/>
@@ -2364,7 +2452,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="4"/>
       <c r="L35" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M35" s="3"/>
     </row>
@@ -2385,7 +2473,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>227</v>
@@ -2393,60 +2481,92 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="3" t="s">
-        <v>342</v>
-      </c>
+      <c r="L38" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="4"/>
       <c r="J39" s="5"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="12" t="s">
+        <v>389</v>
+      </c>
       <c r="M39" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4"/>
@@ -2454,15 +2574,15 @@
       <c r="K42" s="4"/>
       <c r="L42" s="12"/>
       <c r="M42" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
@@ -2470,18 +2590,20 @@
       <c r="H43" s="5"/>
       <c r="I43" s="4"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L43" s="12"/>
       <c r="M43" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
@@ -2489,76 +2611,61 @@
       <c r="H44" s="5"/>
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L44" s="12"/>
       <c r="M44" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5"/>
       <c r="I45" s="4"/>
       <c r="J45" s="5"/>
       <c r="K45" s="4"/>
       <c r="L45" s="12"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F48" s="5"/>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
       <c r="I48" s="4"/>
@@ -2566,13 +2673,13 @@
       <c r="K48" s="4"/>
       <c r="L48" s="12"/>
       <c r="M48" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2584,12 +2691,14 @@
       <c r="J49" s="5"/>
       <c r="K49" s="4"/>
       <c r="L49" s="12"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2601,12 +2710,14 @@
       <c r="J50" s="5"/>
       <c r="K50" s="4"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M50" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2620,17 +2731,15 @@
       <c r="L51" s="12"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
       <c r="I52" s="4"/>
@@ -2638,20 +2747,18 @@
       <c r="K52" s="4"/>
       <c r="L52" s="12"/>
       <c r="M52" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="4"/>
       <c r="H53" s="5"/>
       <c r="I53" s="4"/>
@@ -2660,44 +2767,65 @@
       <c r="L53" s="12"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5"/>
       <c r="I54" s="4"/>
       <c r="J54" s="5"/>
       <c r="K54" s="4"/>
       <c r="L54" s="12"/>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="56" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
+      <c r="M54" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2711,10 +2839,10 @@
       <c r="L57" s="12"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2729,13 +2857,13 @@
       <c r="K58" s="4"/>
       <c r="L58" s="12"/>
       <c r="M58" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2749,85 +2877,48 @@
       <c r="J59" s="5"/>
       <c r="K59" s="4"/>
       <c r="L59" s="12"/>
-      <c r="M59" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="5"/>
       <c r="I60" s="4"/>
       <c r="J60" s="5"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>352</v>
-      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="62" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="B63" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
@@ -2839,283 +2930,345 @@
       <c r="J63" s="5"/>
       <c r="K63" s="4"/>
       <c r="L63" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
       <c r="I64" s="4"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L64" s="12"/>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="B65" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5"/>
       <c r="I65" s="4"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L65" s="12"/>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="B66" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H66" s="5"/>
       <c r="I66" s="4"/>
       <c r="J66" s="5"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="L66" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
-      <c r="B69" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="4"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H69" s="5"/>
       <c r="I69" s="4"/>
       <c r="J69" s="5"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="12"/>
+      <c r="L69" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="M69" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="B70" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F70" s="5"/>
       <c r="G70" s="4"/>
       <c r="H70" s="5"/>
       <c r="I70" s="4"/>
       <c r="J70" s="5"/>
       <c r="K70" s="4"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="C71" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F71" s="5"/>
       <c r="G71" s="4"/>
       <c r="H71" s="5"/>
       <c r="I71" s="4"/>
       <c r="J71" s="5"/>
       <c r="K71" s="4"/>
       <c r="L71" s="12"/>
-      <c r="M71" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="C72" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F72" s="5"/>
       <c r="G72" s="4"/>
       <c r="H72" s="5"/>
       <c r="I72" s="4"/>
       <c r="J72" s="5"/>
       <c r="K72" s="4"/>
       <c r="L72" s="12"/>
-      <c r="M72" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-    </row>
-    <row r="77" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
-      <c r="B77" s="3" t="s">
-        <v>361</v>
-      </c>
+      <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5"/>
       <c r="I77" s="4"/>
       <c r="J77" s="5"/>
       <c r="K77" s="4"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-    </row>
-    <row r="80" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M77" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
-      <c r="B80" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5"/>
       <c r="I80" s="4"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>354</v>
-      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="12"/>
       <c r="M80" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -3130,101 +3283,70 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>261</v>
+        <v>359</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="F83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="5"/>
       <c r="I83" s="4"/>
       <c r="J83" s="5"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="L83" s="12"/>
       <c r="M83" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>355</v>
-      </c>
+      <c r="A85" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
     </row>
     <row r="86" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="5"/>
       <c r="I86" s="4"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L86" s="12" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -3242,7 +3364,7 @@
     <row r="89" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3265,7 +3387,7 @@
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3285,10 +3407,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3308,152 +3430,155 @@
         <v>355</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-    </row>
-    <row r="94" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="s">
-        <v>270</v>
-      </c>
+      <c r="B95" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H95" s="5"/>
       <c r="I95" s="4"/>
       <c r="J95" s="5"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="3"/>
+      <c r="L95" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="4"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H96" s="5"/>
       <c r="I96" s="4"/>
       <c r="J96" s="5"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L96" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="4"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H97" s="5"/>
       <c r="I97" s="4"/>
       <c r="J97" s="5"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="L97" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F100" s="5"/>
       <c r="G100" s="4"/>
       <c r="H100" s="5"/>
       <c r="I100" s="4"/>
       <c r="J100" s="5"/>
       <c r="K100" s="4"/>
       <c r="L100" s="12"/>
-      <c r="M100" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
-      <c r="B101" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
@@ -3465,96 +3590,80 @@
       <c r="L101" s="12"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F102" s="5"/>
       <c r="G102" s="4"/>
       <c r="H102" s="5"/>
       <c r="I102" s="4"/>
       <c r="J102" s="5"/>
       <c r="K102" s="4"/>
       <c r="L102" s="12"/>
-      <c r="M102" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="E103" s="4"/>
-      <c r="F103" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F103" s="5"/>
       <c r="G103" s="4"/>
       <c r="H103" s="5"/>
       <c r="I103" s="4"/>
       <c r="J103" s="5"/>
       <c r="K103" s="4"/>
       <c r="L103" s="12"/>
-      <c r="M103" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="E104" s="4"/>
-      <c r="F104" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F104" s="5"/>
       <c r="G104" s="4"/>
       <c r="H104" s="5"/>
       <c r="I104" s="4"/>
       <c r="J104" s="5"/>
       <c r="K104" s="4"/>
       <c r="L104" s="12"/>
-      <c r="M104" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F105" s="5"/>
       <c r="G105" s="4"/>
       <c r="H105" s="5"/>
       <c r="I105" s="4"/>
       <c r="J105" s="5"/>
       <c r="K105" s="4"/>
       <c r="L105" s="12"/>
-      <c r="M105" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="B106" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
       <c r="F106" s="5" t="s">
@@ -3567,13 +3676,13 @@
       <c r="K106" s="4"/>
       <c r="L106" s="12"/>
       <c r="M106" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3583,21 +3692,25 @@
       <c r="H107" s="5"/>
       <c r="I107" s="4"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="K107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L107" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="288" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F108" s="5"/>
       <c r="G108" s="4"/>
       <c r="H108" s="5"/>
       <c r="I108" s="4"/>
@@ -3605,37 +3718,56 @@
       <c r="K108" s="4"/>
       <c r="L108" s="12"/>
       <c r="M108" s="3" t="s">
-        <v>366</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-    </row>
-    <row r="111" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F111" s="5"/>
       <c r="G111" s="4"/>
       <c r="H111" s="5"/>
       <c r="I111" s="4"/>
@@ -3643,20 +3775,18 @@
       <c r="K111" s="4"/>
       <c r="L111" s="12"/>
       <c r="M111" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F112" s="5"/>
       <c r="G112" s="4"/>
       <c r="H112" s="5"/>
       <c r="I112" s="4"/>
@@ -3664,36 +3794,32 @@
       <c r="K112" s="4"/>
       <c r="L112" s="12"/>
       <c r="M112" s="3" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="B113" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F113" s="5"/>
       <c r="G113" s="4"/>
       <c r="H113" s="5"/>
       <c r="I113" s="4"/>
       <c r="J113" s="5"/>
       <c r="K113" s="4"/>
       <c r="L113" s="12"/>
-      <c r="M113" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M113" s="3"/>
+    </row>
+    <row r="114" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="B114" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
       <c r="F114" s="5" t="s">
@@ -3706,55 +3832,30 @@
       <c r="K114" s="4"/>
       <c r="L114" s="12"/>
       <c r="M114" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3764,16 +3865,20 @@
       <c r="H117" s="5"/>
       <c r="I117" s="4"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="4"/>
+      <c r="K117" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L117" s="12"/>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="M117" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
-      <c r="B118" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
       <c r="F118" s="5"/>
@@ -3781,31 +3886,60 @@
       <c r="H118" s="5"/>
       <c r="I118" s="4"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="4"/>
+      <c r="K118" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L118" s="12"/>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M118" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L119" s="12"/>
+      <c r="M119" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L120" s="12"/>
+      <c r="M120" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -3815,16 +3949,20 @@
       <c r="H121" s="5"/>
       <c r="I121" s="4"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="4"/>
+      <c r="K121" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L121" s="12"/>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M121" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3" t="s">
-        <v>290</v>
-      </c>
+      <c r="B122" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
@@ -3832,16 +3970,20 @@
       <c r="H122" s="5"/>
       <c r="I122" s="4"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="4"/>
+      <c r="K122" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L122" s="12"/>
-      <c r="M122" s="3"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M122" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B123" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
@@ -3853,12 +3995,12 @@
       <c r="L123" s="12"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3" t="s">
-        <v>291</v>
-      </c>
+      <c r="B124" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
@@ -3870,152 +4012,237 @@
       <c r="L124" s="12"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="3"/>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-    </row>
-    <row r="128" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="3"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
-      <c r="B128" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F128" s="5"/>
       <c r="G128" s="4"/>
       <c r="H128" s="5"/>
       <c r="I128" s="4"/>
       <c r="J128" s="5"/>
       <c r="K128" s="4"/>
       <c r="L128" s="12"/>
-      <c r="M128" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
-      <c r="B129" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F129" s="5"/>
       <c r="G129" s="4"/>
       <c r="H129" s="5"/>
       <c r="I129" s="4"/>
       <c r="J129" s="5"/>
       <c r="K129" s="4"/>
       <c r="L129" s="12"/>
-      <c r="M129" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
-      <c r="B130" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="4"/>
       <c r="H130" s="5"/>
       <c r="I130" s="4"/>
       <c r="J130" s="5"/>
       <c r="K130" s="4"/>
       <c r="L130" s="12"/>
-      <c r="M130" s="3" t="s">
+      <c r="M130" s="3"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="3"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="3" t="s">
         <v>342</v>
       </c>
     </row>
+    <row r="135" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F92 F109 F131:F1048576 F119:F126 F1:F87">
+  <conditionalFormatting sqref="F98 F115 F137:F1048576 F125:F132 F1:F40 F42:F93">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92 G92 G109 K109 K131:K1048576 G131:G1048576 G119:G126 K119:K126 G1:G87 K1:K87">
+  <conditionalFormatting sqref="K98 G98 G115 K115 K137:K1048576 G137:G1048576 G125:G132 K125:K132 G1:G93 K1:K93">
     <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F91">
+  <conditionalFormatting sqref="F94:F97">
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F88)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:G91 K88:K91">
+  <conditionalFormatting sqref="G94:G97 K94:K97">
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",G88)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",G94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93:F108">
+  <conditionalFormatting sqref="F99:F114">
     <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G93:G108 K93:K108">
+  <conditionalFormatting sqref="G99:G114 K99:K114">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",G93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",G99)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:F118">
+  <conditionalFormatting sqref="F116:F124">
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F110)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110:G118 K110:K118">
+  <conditionalFormatting sqref="G116:G124 K116:K124">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",G110)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",G116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127:F130">
+  <conditionalFormatting sqref="F133:F136">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F133)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G130 K127:K130">
+  <conditionalFormatting sqref="G133:G136 K133:K136">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",G127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",G133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4027,8 +4254,8 @@
   <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4162,7 +4389,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>297</v>
@@ -6617,6 +6844,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",F1)))</formula>

--- a/artifacts/project/HDInsight Dev Guide Status.xlsx
+++ b/artifacts/project/HDInsight Dev Guide Status.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoinertejada/Dropbox/Projects/Azure/Docs/hdinsight-docs/artifacts/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZoinerTejada\Dropbox\Projects\Azure\Docs\hdinsight-docs\artifacts\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="27780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22500" windowHeight="9945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 2" sheetId="2" r:id="rId1"/>
@@ -18,20 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Milestone 1'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="435">
   <si>
     <t>Topic</t>
   </si>
@@ -391,9 +389,6 @@
   </si>
   <si>
     <t>For Power BI from Spark Streaming / Structured Streaming, what library should be used? The Microsoft one no longer appears in Maven and the community one was only updated thru Spark 1.5.</t>
-  </si>
-  <si>
-    <t>Can team provide more details on what should be covered here?</t>
   </si>
   <si>
     <t>What should be covered? Need more details.</t>
@@ -1190,9 +1185,6 @@
     <t>hdinsight-install-published-app-h2o.md</t>
   </si>
   <si>
-    <t>AND hdinsight-install-published-app-datameer.md</t>
-  </si>
-  <si>
     <t xml:space="preserve"> hdinsight-install-published-app-streamsets.md</t>
   </si>
   <si>
@@ -1212,9 +1204,6 @@
   </si>
   <si>
     <t>blocked getting access</t>
-  </si>
-  <si>
-    <t>Already covered by https://azure.microsoft.com/en-us/blog/introducing-dataiku-s-dss-on-microsoft-azure-hdinsight-to-make-data-science-easier/</t>
   </si>
   <si>
     <t>Already covered by https://blogs.msdn.microsoft.com/azuredatalake/2016/10/17/using-cask-data-application-platform-on-azure-hdinsight/</t>
@@ -1303,11 +1292,62 @@
   <si>
     <t>Need confirmation if using Phoenix from Spark is really supported. Documentation indicates it is not. Do we cut?</t>
   </si>
+  <si>
+    <t>Blocked - waiting for a response from Xiaoyong from 6/30</t>
+  </si>
+  <si>
+    <t>hdinsight-iterative-data-exploration.md</t>
+  </si>
+  <si>
+    <t>hdinsight-data-warehouse-on-demand.md</t>
+  </si>
+  <si>
+    <t>hdinsight-achieving-batch-and-interactive-with-hadoop-spark.md</t>
+  </si>
+  <si>
+    <t>hdinsight-run-custom-programs.md</t>
+  </si>
+  <si>
+    <t>hdinsight-spark-streaming-high-availability.md</t>
+  </si>
+  <si>
+    <t>hdinsight-operationalize-data-pipeline.md</t>
+  </si>
+  <si>
+    <t>hdinsight-authorize-users-to-ambari.md</t>
+  </si>
+  <si>
+    <t>hdinsight-spark-settings.md</t>
+  </si>
+  <si>
+    <t>hdinsight-phoenix-read-write-spark.md</t>
+  </si>
+  <si>
+    <t>hdinsight-spark-perf.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hdinsight-install-published-app-datameer.md</t>
+  </si>
+  <si>
+    <t>hdinsight-install-published-app-dataiku.md</t>
+  </si>
+  <si>
+    <t>hdinsight-etl-deep-dive.md</t>
+  </si>
+  <si>
+    <t>hdinsight-deep-dive-advanced-analytics.md</t>
+  </si>
+  <si>
+    <t>hdinsight-scaling-best-practices.md</t>
+  </si>
+  <si>
+    <t>hdinsight-debug-jobs.md</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1865,26 +1905,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2"/>
     <col min="8" max="8" width="11" style="2"/>
     <col min="10" max="10" width="11" style="2"/>
     <col min="12" max="12" width="11" style="2"/>
-    <col min="13" max="13" width="36.83203125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="29.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1938,7 @@
         <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>38</v>
@@ -1916,15 +1956,15 @@
         <v>42</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1940,10 +1980,10 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1958,17 +1998,17 @@
         <v>46</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -1982,16 +2022,16 @@
         <v>46</v>
       </c>
       <c r="M5" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -2005,14 +2045,14 @@
       <c r="K6" s="5"/>
       <c r="L6" s="4"/>
       <c r="M6" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2027,16 +2067,16 @@
         <v>46</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2051,14 +2091,14 @@
       <c r="K8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2075,16 +2115,16 @@
         <v>46</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2099,16 +2139,16 @@
       <c r="K10" s="5"/>
       <c r="L10" s="4"/>
       <c r="M10" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2123,14 +2163,14 @@
       <c r="K11" s="5"/>
       <c r="L11" s="4"/>
       <c r="M11" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2146,13 +2186,13 @@
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2171,10 +2211,10 @@
       <c r="M13" s="12"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2190,12 +2230,12 @@
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2211,10 +2251,10 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2229,14 +2269,14 @@
       <c r="K18" s="5"/>
       <c r="L18" s="4"/>
       <c r="M18" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2246,23 +2286,23 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
       <c r="L19" s="4"/>
       <c r="M19" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2279,14 +2319,14 @@
       <c r="K20" s="5"/>
       <c r="L20" s="4"/>
       <c r="M20" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2303,14 +2343,14 @@
       <c r="K21" s="5"/>
       <c r="L21" s="4"/>
       <c r="M21" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2325,23 +2365,21 @@
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4" t="s">
         <v>46</v>
@@ -2350,15 +2388,17 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="12" t="s">
+        <v>427</v>
+      </c>
       <c r="N23" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2374,13 +2414,13 @@
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2395,13 +2435,13 @@
       <c r="K25" s="5"/>
       <c r="L25" s="4"/>
       <c r="M25" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2417,10 +2457,10 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2435,13 +2475,13 @@
       <c r="K28" s="5"/>
       <c r="L28" s="4"/>
       <c r="M28" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2457,10 +2497,10 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2474,14 +2514,16 @@
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12" t="s">
+        <v>428</v>
+      </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -2497,11 +2539,11 @@
       <c r="M32" s="12"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -2517,11 +2559,11 @@
       <c r="M33" s="12"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -2537,10 +2579,10 @@
       <c r="M34" s="12"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
@@ -2555,13 +2597,13 @@
       <c r="K35" s="5"/>
       <c r="L35" s="4"/>
       <c r="M35" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N35" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2577,10 +2619,10 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2595,15 +2637,15 @@
       <c r="K38" s="5"/>
       <c r="L38" s="4"/>
       <c r="M38" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -2617,15 +2659,15 @@
       <c r="K39" s="5"/>
       <c r="L39" s="4"/>
       <c r="M39" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -2639,15 +2681,15 @@
       <c r="K40" s="5"/>
       <c r="L40" s="4"/>
       <c r="M40" s="12" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -2659,15 +2701,15 @@
       <c r="K41" s="5"/>
       <c r="L41" s="4"/>
       <c r="M41" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -2675,7 +2717,7 @@
         <v>46</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
@@ -2684,36 +2726,36 @@
       <c r="L42" s="4"/>
       <c r="M42" s="12"/>
       <c r="N42" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="L43" s="4"/>
+      <c r="M43" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -2728,14 +2770,14 @@
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
@@ -2743,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="5"/>
@@ -2752,12 +2794,12 @@
       <c r="L45" s="4"/>
       <c r="M45" s="12"/>
       <c r="N45" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2773,39 +2815,43 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H48" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="4"/>
       <c r="K48" s="5"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="12"/>
+      <c r="M48" s="12" t="s">
+        <v>431</v>
+      </c>
       <c r="N48" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="5"/>
@@ -2815,17 +2861,17 @@
       <c r="M49" s="12"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="5"/>
@@ -2835,17 +2881,17 @@
       <c r="M50" s="12"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="5"/>
@@ -2854,20 +2900,20 @@
       <c r="L51" s="4"/>
       <c r="M51" s="12"/>
       <c r="N51" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
       <c r="G52" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="5"/>
@@ -2876,20 +2922,20 @@
       <c r="L52" s="4"/>
       <c r="M52" s="12"/>
       <c r="N52" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
       <c r="G53" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="5"/>
@@ -2899,17 +2945,17 @@
       <c r="M53" s="12"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="5"/>
@@ -2919,17 +2965,17 @@
       <c r="M54" s="12"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="5"/>
@@ -2938,20 +2984,20 @@
       <c r="L55" s="4"/>
       <c r="M55" s="12"/>
       <c r="N55" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="5"/>
@@ -2961,10 +3007,10 @@
       <c r="M56" s="12"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2980,13 +3026,13 @@
       <c r="L57" s="4"/>
       <c r="M57" s="12"/>
       <c r="N57" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3001,37 +3047,41 @@
       <c r="M58" s="12"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="H59" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I59" s="5"/>
       <c r="J59" s="4"/>
       <c r="K59" s="5"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="12"/>
+      <c r="M59" s="12" t="s">
+        <v>432</v>
+      </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="5"/>
@@ -3041,17 +3091,17 @@
       <c r="M60" s="12"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="5"/>
@@ -3061,70 +3111,78 @@
       <c r="M61" s="12"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H62" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I62" s="5"/>
       <c r="J62" s="4"/>
       <c r="K62" s="5"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="12"/>
+      <c r="M62" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="5"/>
       <c r="J63" s="4"/>
       <c r="K63" s="5"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="12"/>
+      <c r="M63" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="5"/>
       <c r="J64" s="4"/>
       <c r="K64" s="5"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="12"/>
+      <c r="M64" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3140,13 +3198,13 @@
       <c r="L65" s="4"/>
       <c r="M65" s="12"/>
       <c r="N65" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3163,17 +3221,17 @@
       <c r="M66" s="12"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="5"/>
@@ -3183,9 +3241,9 @@
       <c r="M67" s="12"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="69" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3201,10 +3259,10 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3219,14 +3277,14 @@
       <c r="K70" s="5"/>
       <c r="L70" s="4"/>
       <c r="M70" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3244,13 +3302,13 @@
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3268,13 +3326,13 @@
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3289,17 +3347,17 @@
       <c r="K73" s="5"/>
       <c r="L73" s="4"/>
       <c r="M73" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
@@ -3313,17 +3371,17 @@
       <c r="K74" s="5"/>
       <c r="L74" s="4"/>
       <c r="M74" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
@@ -3337,17 +3395,17 @@
       <c r="K75" s="5"/>
       <c r="L75" s="4"/>
       <c r="M75" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
@@ -3361,37 +3419,41 @@
       <c r="K76" s="5"/>
       <c r="L76" s="4"/>
       <c r="M76" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H77" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I77" s="5"/>
       <c r="J77" s="4"/>
       <c r="K77" s="5"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="12" t="s">
+        <v>433</v>
+      </c>
       <c r="N77" s="3"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
@@ -3405,11 +3467,11 @@
       <c r="M78" s="12"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
@@ -3423,9 +3485,9 @@
       <c r="M79" s="12"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -3441,10 +3503,10 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3453,7 +3515,7 @@
         <v>46</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="5"/>
@@ -3462,14 +3524,14 @@
       <c r="L82" s="4"/>
       <c r="M82" s="12"/>
       <c r="N82" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
@@ -3477,7 +3539,7 @@
         <v>46</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="5"/>
@@ -3486,22 +3548,22 @@
       <c r="L83" s="4"/>
       <c r="M83" s="12"/>
       <c r="N83" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="5"/>
@@ -3510,22 +3572,22 @@
       <c r="L84" s="4"/>
       <c r="M84" s="12"/>
       <c r="N84" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="5"/>
@@ -3534,14 +3596,14 @@
       <c r="L85" s="4"/>
       <c r="M85" s="12"/>
       <c r="N85" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
@@ -3549,7 +3611,7 @@
         <v>46</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="5"/>
@@ -3558,14 +3620,14 @@
       <c r="L86" s="4"/>
       <c r="M86" s="12"/>
       <c r="N86" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
@@ -3573,7 +3635,7 @@
         <v>46</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="5"/>
@@ -3582,12 +3644,12 @@
       <c r="L87" s="4"/>
       <c r="M87" s="12"/>
       <c r="N87" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -3603,10 +3665,10 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3615,7 +3677,7 @@
         <v>46</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
@@ -3624,12 +3686,12 @@
       <c r="L90" s="4"/>
       <c r="M90" s="12"/>
       <c r="N90" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -3645,10 +3707,10 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3663,15 +3725,15 @@
         <v>46</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3687,10 +3749,10 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3705,16 +3767,16 @@
       <c r="K96" s="5"/>
       <c r="L96" s="4"/>
       <c r="M96" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3729,16 +3791,16 @@
       <c r="K97" s="5"/>
       <c r="L97" s="4"/>
       <c r="M97" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3753,16 +3815,16 @@
       <c r="K98" s="5"/>
       <c r="L98" s="4"/>
       <c r="M98" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3777,15 +3839,15 @@
       <c r="K99" s="5"/>
       <c r="L99" s="4"/>
       <c r="M99" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3801,10 +3863,10 @@
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3819,16 +3881,16 @@
       <c r="K102" s="5"/>
       <c r="L102" s="4"/>
       <c r="M102" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3843,16 +3905,16 @@
       <c r="K103" s="5"/>
       <c r="L103" s="4"/>
       <c r="M103" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3867,15 +3929,15 @@
       <c r="K104" s="5"/>
       <c r="L104" s="4"/>
       <c r="M104" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3891,31 +3953,35 @@
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H107" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I107" s="5"/>
       <c r="J107" s="4"/>
       <c r="K107" s="5"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="12"/>
+      <c r="M107" s="12" t="s">
+        <v>434</v>
+      </c>
       <c r="N107" s="3"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
@@ -3929,12 +3995,12 @@
       <c r="M108" s="12"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
@@ -3947,12 +4013,12 @@
       <c r="M109" s="12"/>
       <c r="N109" s="3"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
@@ -3965,12 +4031,12 @@
       <c r="M110" s="12"/>
       <c r="N110" s="3"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
@@ -3983,17 +4049,19 @@
       <c r="M111" s="12"/>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G112" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="5"/>
@@ -4001,12 +4069,14 @@
       <c r="K112" s="5"/>
       <c r="L112" s="4"/>
       <c r="M112" s="12"/>
-      <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="N112" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4015,7 +4085,7 @@
         <v>46</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="5"/>
@@ -4024,13 +4094,13 @@
       <c r="L113" s="4"/>
       <c r="M113" s="12"/>
       <c r="N113" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4045,16 +4115,16 @@
         <v>46</v>
       </c>
       <c r="M114" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="N114" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="N114" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:14" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4068,13 +4138,13 @@
       <c r="L115" s="4"/>
       <c r="M115" s="12"/>
       <c r="N115" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4088,13 +4158,13 @@
       <c r="L116" s="4"/>
       <c r="M116" s="12"/>
       <c r="N116" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4108,13 +4178,13 @@
       <c r="L117" s="4"/>
       <c r="M117" s="12"/>
       <c r="N117" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4128,14 +4198,14 @@
       <c r="L118" s="4"/>
       <c r="M118" s="12"/>
       <c r="N118" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="4"/>
@@ -4148,20 +4218,20 @@
       <c r="L119" s="4"/>
       <c r="M119" s="12"/>
       <c r="N119" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>46</v>
@@ -4171,16 +4241,16 @@
       <c r="K120" s="5"/>
       <c r="L120" s="4"/>
       <c r="M120" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4196,12 +4266,12 @@
       <c r="L121" s="4"/>
       <c r="M121" s="12"/>
       <c r="N121" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -4217,10 +4287,10 @@
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4236,14 +4306,14 @@
       </c>
       <c r="M124" s="12"/>
       <c r="N124" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="4"/>
@@ -4258,14 +4328,14 @@
       </c>
       <c r="M125" s="12"/>
       <c r="N125" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="4"/>
@@ -4280,14 +4350,14 @@
       </c>
       <c r="M126" s="12"/>
       <c r="N126" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="4"/>
@@ -4302,20 +4372,20 @@
       </c>
       <c r="M127" s="12"/>
       <c r="N127" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="5"/>
@@ -4326,20 +4396,20 @@
       </c>
       <c r="M128" s="12"/>
       <c r="N128" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="5"/>
@@ -4350,20 +4420,20 @@
       </c>
       <c r="M129" s="12"/>
       <c r="N129" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>46</v>
@@ -4373,21 +4443,21 @@
       <c r="K130" s="5"/>
       <c r="L130" s="4"/>
       <c r="M130" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N130" s="3"/>
     </row>
-    <row r="131" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="5"/>
@@ -4397,15 +4467,15 @@
         <v>46</v>
       </c>
       <c r="M131" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -4421,10 +4491,10 @@
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4439,17 +4509,17 @@
       <c r="M134" s="12"/>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="5"/>
@@ -4459,17 +4529,17 @@
       <c r="M135" s="12"/>
       <c r="N135" s="3"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="5"/>
@@ -4479,17 +4549,17 @@
       <c r="M136" s="12"/>
       <c r="N136" s="3"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="5"/>
@@ -4499,11 +4569,11 @@
       <c r="M137" s="12"/>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="4"/>
@@ -4517,9 +4587,9 @@
       <c r="M138" s="12"/>
       <c r="N138" s="3"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -4535,10 +4605,10 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4547,7 +4617,7 @@
         <v>46</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="5"/>
@@ -4556,13 +4626,13 @@
       <c r="L141" s="4"/>
       <c r="M141" s="12"/>
       <c r="N141" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4571,7 +4641,7 @@
         <v>46</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="5"/>
@@ -4580,13 +4650,13 @@
       <c r="L142" s="4"/>
       <c r="M142" s="12"/>
       <c r="N142" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4595,7 +4665,7 @@
         <v>46</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="5"/>
@@ -4604,24 +4674,24 @@
       <c r="L143" s="4"/>
       <c r="M143" s="12"/>
       <c r="N143" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E146" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G146">
         <f>COUNTIF(G3:G143, "=P0")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F147" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G147">
         <f>COUNTIF(G3:G143, "=P1")</f>
@@ -4693,30 +4763,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2"/>
+    <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="2"/>
-    <col min="10" max="10" width="11" style="2"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="2"/>
-    <col min="13" max="13" width="36.83203125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="29.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="74.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.83203125" customWidth="1"/>
+    <col min="16" max="16" width="23.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.875" customWidth="1"/>
     <col min="18" max="18" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="58" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4802,7 @@
         <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>38</v>
@@ -4748,13 +4820,13 @@
         <v>42</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4772,7 +4844,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4782,20 +4854,19 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>419</v>
+      </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -4805,20 +4876,22 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>420</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -4836,16 +4909,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="4"/>
       <c r="M6" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -4863,11 +4936,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="4"/>
       <c r="M7" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -4885,11 +4958,11 @@
       <c r="K8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -4897,53 +4970,55 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="M9" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="N9" s="3"/>
       <c r="O9" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>422</v>
+      </c>
       <c r="N10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
@@ -4957,18 +5032,20 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="M11" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -4986,7 +5063,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -5004,14 +5081,14 @@
       <c r="K15" s="5"/>
       <c r="L15" s="4"/>
       <c r="M15" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="128" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="126" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -5029,23 +5106,23 @@
       <c r="K16" s="5"/>
       <c r="L16" s="4"/>
       <c r="M16" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="R16" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="R16" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>21</v>
@@ -5063,23 +5140,23 @@
       <c r="K17" s="5"/>
       <c r="L17" s="4"/>
       <c r="M17" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="R17" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="R17" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -5089,7 +5166,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
@@ -5097,14 +5174,14 @@
       <c r="K18" s="5"/>
       <c r="L18" s="4"/>
       <c r="M18" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -5122,11 +5199,11 @@
       <c r="K19" s="5"/>
       <c r="L19" s="4"/>
       <c r="M19" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -5144,11 +5221,11 @@
       <c r="K20" s="5"/>
       <c r="L20" s="4"/>
       <c r="M20" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>22</v>
@@ -5166,11 +5243,11 @@
       <c r="K21" s="5"/>
       <c r="L21" s="4"/>
       <c r="M21" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -5188,11 +5265,11 @@
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -5210,11 +5287,11 @@
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
       <c r="M23" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -5232,11 +5309,11 @@
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
       <c r="M24" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>18</v>
@@ -5254,14 +5331,14 @@
       <c r="K25" s="5"/>
       <c r="L25" s="4"/>
       <c r="M25" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -5280,10 +5357,10 @@
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>20</v>
@@ -5301,11 +5378,11 @@
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
       <c r="M27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -5323,19 +5400,19 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="Q29" t="s">
         <v>323</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>324</v>
       </c>
-      <c r="R29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>24</v>
@@ -5353,20 +5430,20 @@
       <c r="K30" s="5"/>
       <c r="L30" s="4"/>
       <c r="M30" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="Q30" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
@@ -5384,11 +5461,11 @@
       <c r="K31" s="5"/>
       <c r="L31" s="4"/>
       <c r="M31" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
@@ -5406,11 +5483,11 @@
       <c r="K32" s="5"/>
       <c r="L32" s="4"/>
       <c r="M32" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
@@ -5428,11 +5505,11 @@
       <c r="K33" s="5"/>
       <c r="L33" s="4"/>
       <c r="M33" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>28</v>
@@ -5444,7 +5521,7 @@
         <v>46</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
@@ -5453,13 +5530,13 @@
       <c r="L34" s="4"/>
       <c r="M34" s="12"/>
       <c r="N34" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -5477,7 +5554,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -5497,13 +5574,13 @@
         <v>46</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -5521,7 +5598,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -5531,15 +5608,19 @@
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="4"/>
       <c r="K39" s="5"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="12"/>
+      <c r="M39" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5557,7 +5638,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5575,7 +5656,7 @@
       <c r="M41" s="12"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5593,7 +5674,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5611,10 +5692,10 @@
       <c r="M43" s="12"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5629,16 +5710,16 @@
         <v>46</v>
       </c>
       <c r="M44" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="O44" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
@@ -5655,13 +5736,13 @@
       <c r="L45" s="4"/>
       <c r="M45" s="12"/>
       <c r="N45" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>47</v>
@@ -5679,13 +5760,13 @@
         <v>46</v>
       </c>
       <c r="M46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>48</v>
@@ -5703,13 +5784,13 @@
         <v>46</v>
       </c>
       <c r="M47" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>49</v>
@@ -5727,7 +5808,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
@@ -5745,7 +5826,7 @@
       <c r="M49" s="12"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
@@ -5755,7 +5836,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="5"/>
@@ -5765,7 +5846,7 @@
       <c r="M50" s="12"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>52</v>
@@ -5785,11 +5866,11 @@
       <c r="M51" s="12"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
@@ -5803,10 +5884,10 @@
       <c r="M52" s="12"/>
       <c r="N52" s="3"/>
       <c r="O52" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
@@ -5824,13 +5905,13 @@
         <v>46</v>
       </c>
       <c r="M53" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
@@ -5842,7 +5923,7 @@
         <v>46</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="5"/>
@@ -5852,10 +5933,10 @@
       <c r="M54" s="12"/>
       <c r="N54" s="3"/>
       <c r="O54" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
@@ -5873,13 +5954,13 @@
         <v>46</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
@@ -5889,7 +5970,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="5"/>
@@ -5899,7 +5980,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
@@ -5911,7 +5992,7 @@
         <v>46</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="5"/>
@@ -5921,7 +6002,7 @@
       <c r="M57" s="12"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>58</v>
@@ -5929,11 +6010,9 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="5"/>
@@ -5943,16 +6022,16 @@
         <v>46</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
@@ -5970,13 +6049,13 @@
         <v>46</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
@@ -5994,13 +6073,13 @@
         <v>46</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
@@ -6018,10 +6097,10 @@
       <c r="M61" s="12"/>
       <c r="N61" s="3"/>
       <c r="O61" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
@@ -6039,7 +6118,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>63</v>
@@ -6057,11 +6136,11 @@
       <c r="K64" s="5"/>
       <c r="L64" s="4"/>
       <c r="M64" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
@@ -6079,11 +6158,11 @@
       <c r="K65" s="5"/>
       <c r="L65" s="4"/>
       <c r="M65" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
@@ -6101,11 +6180,11 @@
       <c r="K66" s="5"/>
       <c r="L66" s="4"/>
       <c r="M66" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
@@ -6123,11 +6202,11 @@
       <c r="K67" s="5"/>
       <c r="L67" s="4"/>
       <c r="M67" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>67</v>
@@ -6145,11 +6224,11 @@
         <v>46</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
@@ -6169,13 +6248,13 @@
         <v>46</v>
       </c>
       <c r="M69" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N69" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
@@ -6193,13 +6272,13 @@
         <v>46</v>
       </c>
       <c r="M70" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N70" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
@@ -6217,13 +6296,13 @@
         <v>46</v>
       </c>
       <c r="M71" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N71" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
@@ -6241,13 +6320,13 @@
         <v>46</v>
       </c>
       <c r="M72" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N72" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
@@ -6263,21 +6342,23 @@
       <c r="I73" s="5"/>
       <c r="J73" s="4"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="4"/>
+      <c r="L73" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="M73" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -6292,14 +6373,14 @@
       <c r="K74" s="5"/>
       <c r="L74" s="4"/>
       <c r="M74" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>73</v>
@@ -6317,11 +6398,11 @@
       <c r="K75" s="5"/>
       <c r="L75" s="4"/>
       <c r="M75" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>74</v>
@@ -6339,13 +6420,13 @@
         <v>46</v>
       </c>
       <c r="M76" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>75</v>
@@ -6363,13 +6444,13 @@
         <v>46</v>
       </c>
       <c r="M77" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N77" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N77" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
@@ -6388,13 +6469,13 @@
       </c>
       <c r="M78" s="12"/>
       <c r="N78" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
@@ -6408,18 +6489,16 @@
       <c r="I79" s="5"/>
       <c r="J79" s="4"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="12"/>
       <c r="N79" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
@@ -6437,13 +6516,13 @@
         <v>46</v>
       </c>
       <c r="M80" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N80" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>79</v>
       </c>
@@ -6461,7 +6540,7 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>80</v>
@@ -6479,11 +6558,11 @@
       <c r="K83" s="5"/>
       <c r="L83" s="4"/>
       <c r="M83" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>81</v>
@@ -6501,13 +6580,13 @@
         <v>46</v>
       </c>
       <c r="M84" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N84" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N84" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>82</v>
@@ -6525,11 +6604,11 @@
       <c r="K85" s="5"/>
       <c r="L85" s="4"/>
       <c r="M85" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>83</v>
@@ -6548,10 +6627,10 @@
       </c>
       <c r="M86" s="12"/>
       <c r="N86" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>84</v>
@@ -6569,13 +6648,13 @@
         <v>46</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>85</v>
@@ -6585,22 +6664,26 @@
       <c r="E88" s="4"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H88" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="J88" s="4"/>
       <c r="K88" s="5"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="12"/>
+      <c r="M88" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="N88" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>86</v>
@@ -6620,13 +6703,13 @@
         <v>46</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>87</v>
@@ -6640,7 +6723,7 @@
         <v>46</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
@@ -6648,16 +6731,16 @@
       <c r="K90" s="5"/>
       <c r="L90" s="4"/>
       <c r="M90" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>88</v>
       </c>
@@ -6675,17 +6758,17 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>46</v>
@@ -6695,14 +6778,14 @@
       <c r="K93" s="5"/>
       <c r="L93" s="4"/>
       <c r="M93" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>89</v>
@@ -6722,11 +6805,11 @@
       <c r="K94" s="5"/>
       <c r="L94" s="4"/>
       <c r="M94" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>90</v>
@@ -6746,13 +6829,13 @@
         <v>46</v>
       </c>
       <c r="M95" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N95" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N95" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>91</v>
@@ -6772,13 +6855,13 @@
         <v>46</v>
       </c>
       <c r="M96" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N96" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N96" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>92</v>
@@ -6798,16 +6881,16 @@
         <v>46</v>
       </c>
       <c r="M97" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N97" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N97" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="O97" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>93</v>
@@ -6828,10 +6911,10 @@
       <c r="L98" s="4"/>
       <c r="M98" s="12"/>
       <c r="N98" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>94</v>
@@ -6839,26 +6922,26 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H99" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I99" s="5"/>
       <c r="J99" s="4"/>
       <c r="K99" s="5"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="M99" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="N99" s="3"/>
       <c r="O99" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>95</v>
@@ -6870,7 +6953,7 @@
         <v>46</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="5"/>
@@ -6879,10 +6962,10 @@
       <c r="L100" s="4"/>
       <c r="M100" s="12"/>
       <c r="N100" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>96</v>
       </c>
@@ -6900,7 +6983,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -6922,11 +7005,11 @@
       <c r="K103" s="5"/>
       <c r="L103" s="4"/>
       <c r="M103" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -6948,11 +7031,11 @@
         <v>46</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>3</v>
       </c>
@@ -6968,7 +7051,7 @@
         <v>46</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="5"/>
@@ -6977,10 +7060,10 @@
       <c r="L105" s="4"/>
       <c r="M105" s="12"/>
       <c r="N105" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -6998,7 +7081,7 @@
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>100</v>
@@ -7016,13 +7099,13 @@
         <v>46</v>
       </c>
       <c r="M108" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N108" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N108" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>101</v>
@@ -7041,10 +7124,10 @@
       <c r="L109" s="4"/>
       <c r="M109" s="12"/>
       <c r="N109" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>102</v>
       </c>
@@ -7062,7 +7145,7 @@
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>103</v>
@@ -7081,13 +7164,13 @@
       <c r="L112" s="4"/>
       <c r="M112" s="12"/>
       <c r="N112" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>104</v>
@@ -7105,11 +7188,11 @@
         <v>46</v>
       </c>
       <c r="M113" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>105</v>
@@ -7128,10 +7211,10 @@
       <c r="L114" s="4"/>
       <c r="M114" s="12"/>
       <c r="N114" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>106</v>
@@ -7149,13 +7232,13 @@
       <c r="K115" s="5"/>
       <c r="L115" s="4"/>
       <c r="M115" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>107</v>
@@ -7173,13 +7256,13 @@
         <v>46</v>
       </c>
       <c r="M116" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>108</v>
@@ -7199,11 +7282,11 @@
       <c r="K117" s="5"/>
       <c r="L117" s="4"/>
       <c r="M117" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>109</v>
@@ -7223,13 +7306,13 @@
       <c r="K118" s="5"/>
       <c r="L118" s="4"/>
       <c r="M118" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N118" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -7247,7 +7330,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>110</v>
@@ -7265,11 +7348,11 @@
       <c r="K121" s="5"/>
       <c r="L121" s="4"/>
       <c r="M121" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>111</v>
@@ -7287,11 +7370,11 @@
       <c r="K122" s="5"/>
       <c r="L122" s="4"/>
       <c r="M122" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>112</v>
@@ -7299,23 +7382,23 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H123" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I123" s="5"/>
       <c r="J123" s="4"/>
       <c r="K123" s="5"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="M123" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="N123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>113</v>
@@ -7333,11 +7416,11 @@
       <c r="K124" s="5"/>
       <c r="L124" s="4"/>
       <c r="M124" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>114</v>
@@ -7351,7 +7434,7 @@
         <v>46</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="5"/>
@@ -7361,16 +7444,16 @@
         <v>46</v>
       </c>
       <c r="M125" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="N125" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N125" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="O125" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>115</v>
@@ -7382,7 +7465,7 @@
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>46</v>
@@ -7392,13 +7475,13 @@
       <c r="K126" s="5"/>
       <c r="L126" s="4"/>
       <c r="M126" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="N126" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N126" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>116</v>
@@ -7412,7 +7495,7 @@
         <v>46</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="5"/>
@@ -7424,10 +7507,10 @@
         <v>119</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>117</v>
@@ -7441,7 +7524,7 @@
         <v>46</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="5"/>
@@ -7450,27 +7533,27 @@
       <c r="L128" s="4"/>
       <c r="M128" s="12"/>
       <c r="N128" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E130" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G130">
         <f>COUNTIF(G4:G128,"=p0")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F131" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G131">
         <f>COUNTIF(G4:G128,"=P1")</f>

--- a/artifacts/project/HDInsight Dev Guide Status.xlsx
+++ b/artifacts/project/HDInsight Dev Guide Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22500" windowHeight="9945" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22500" windowHeight="9945" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Milestone 1'!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="435">
   <si>
     <t>Topic</t>
   </si>
@@ -1905,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
@@ -4763,9 +4762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4856,7 +4855,9 @@
       <c r="G4" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
@@ -4878,7 +4879,9 @@
       <c r="G5" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
@@ -5045,7 +5048,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -5168,7 +5171,9 @@
       <c r="G18" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
@@ -6100,7 +6105,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
@@ -6965,7 +6970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>96</v>
       </c>
@@ -7063,7 +7068,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -7127,7 +7132,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>102</v>
       </c>
@@ -7310,7 +7315,7 @@
       </c>
       <c r="N118" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>305</v>
       </c>
